--- a/Project/report/Results.xlsx
+++ b/Project/report/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\EEC289Q\Project\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D9BB7F9-AFC8-4250-9ADB-9108D6D8BE54}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5E529E-0808-41E1-A176-FBEA816A2372}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17244" windowHeight="7356" xr2:uid="{3001AB86-C808-4C68-A721-17CDB3373F5F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17244" windowHeight="7356" activeTab="1" xr2:uid="{3001AB86-C808-4C68-A721-17CDB3373F5F}"/>
   </bookViews>
   <sheets>
     <sheet name="timing" sheetId="2" r:id="rId1"/>
@@ -175,6 +175,9 @@
                 <c:pt idx="2">
                   <c:v>2106</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>5797</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -192,6 +195,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>39.616222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,6 +262,9 @@
                 <c:pt idx="2">
                   <c:v>2106</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>5797</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -273,6 +282,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>161.673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1114,7 +1126,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{49E02D57-75D3-4B2D-9511-7C2B1779F504}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="70" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1126,7 +1138,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9927465" cy="7652197"/>
+    <xdr:ext cx="9932737" cy="7646737"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1159,12 +1171,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.60971</cdr:x>
-      <cdr:y>0.13529</cdr:y>
+      <cdr:x>0.59327</cdr:x>
+      <cdr:y>0.1296</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.77553</cdr:x>
-      <cdr:y>0.21199</cdr:y>
+      <cdr:x>0.75909</cdr:x>
+      <cdr:y>0.2063</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1179,8 +1191,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5281449" y="849587"/>
-          <a:ext cx="1436413" cy="481724"/>
+          <a:off x="5892803" y="990985"/>
+          <a:ext cx="1647047" cy="586505"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1611,13 +1623,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A5E5DE-332E-4DF1-BBB8-34C1EE932F3E}">
-  <dimension ref="B2:G5"/>
+  <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
@@ -1631,7 +1646,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.09</v>
       </c>
       <c r="C3" s="1">
@@ -1644,13 +1659,13 @@
         <f>120.394-1.5-5.3</f>
         <v>113.59400000000001</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>E3/D3</f>
         <v>3.2914562264196436</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.08</v>
       </c>
       <c r="C4" s="1">
@@ -1662,13 +1677,13 @@
       <c r="E4" s="1">
         <v>157.685</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <f t="shared" ref="G4:G5" si="0">E4/D4</f>
         <v>4.5850603940718164</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5">
+      <c r="B5" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C5" s="1">
@@ -1680,9 +1695,23 @@
       <c r="E5" s="1">
         <v>161.673</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>4.0809797562220851</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5797</v>
+      </c>
+      <c r="D6" s="1">
+        <v>68.97</v>
+      </c>
+      <c r="E6" s="1">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
